--- a/MMO/CamTu_MMO.xlsx
+++ b/MMO/CamTu_MMO.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="618" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="618" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Camtu082880" sheetId="1" r:id="rId1"/>
     <sheet name="Vuongphong" sheetId="2" r:id="rId2"/>
     <sheet name="Link" sheetId="3" r:id="rId3"/>
+    <sheet name="Cmder" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Link!$A$5:$E$60</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="294">
   <si>
     <t>Stt</t>
   </si>
@@ -468,13 +469,682 @@
   </si>
   <si>
     <t>https://camelbtc.com/?ref=11997</t>
+  </si>
+  <si>
+    <t>simthue.net</t>
+  </si>
+  <si>
+    <t>#claimfreecoins</t>
+  </si>
+  <si>
+    <t>#macrobits</t>
+  </si>
+  <si>
+    <t>#coinadster</t>
+  </si>
+  <si>
+    <t>#buxcoin</t>
+  </si>
+  <si>
+    <t>#freecoinz</t>
+  </si>
+  <si>
+    <t>#grabtc</t>
+  </si>
+  <si>
+    <t>#cryptonline</t>
+  </si>
+  <si>
+    <t>#bestcripto</t>
+  </si>
+  <si>
+    <t>#starfaucet</t>
+  </si>
+  <si>
+    <t>#freeshiba</t>
+  </si>
+  <si>
+    <t>#multicoins</t>
+  </si>
+  <si>
+    <t>#ptc4btc</t>
+  </si>
+  <si>
+    <t>#coinoto</t>
+  </si>
+  <si>
+    <t>#faucetcrypto</t>
+  </si>
+  <si>
+    <t>#bitcointricks</t>
+  </si>
+  <si>
+    <t>#cryptofenz</t>
+  </si>
+  <si>
+    <t>#bestofreal</t>
+  </si>
+  <si>
+    <t>#coinfreepro</t>
+  </si>
+  <si>
+    <t>#tokenmix</t>
+  </si>
+  <si>
+    <t>#paybits</t>
+  </si>
+  <si>
+    <t>#autofaucet</t>
+  </si>
+  <si>
+    <t>#autoclaim</t>
+  </si>
+  <si>
+    <t>#autobitco</t>
+  </si>
+  <si>
+    <t>#ganarbitcoin</t>
+  </si>
+  <si>
+    <t>#ziifaucet</t>
+  </si>
+  <si>
+    <t>#snails</t>
+  </si>
+  <si>
+    <t>#cryptoclaim</t>
+  </si>
+  <si>
+    <t>#lemeclaim</t>
+  </si>
+  <si>
+    <t>#cryptofy</t>
+  </si>
+  <si>
+    <t>#bestautofaucet</t>
+  </si>
+  <si>
+    <t>#blitzfaucet</t>
+  </si>
+  <si>
+    <t>#sevenfaucet</t>
+  </si>
+  <si>
+    <t>#landofbits</t>
+  </si>
+  <si>
+    <t>#99faucet</t>
+  </si>
+  <si>
+    <t>#faucetpk</t>
+  </si>
+  <si>
+    <t>#welovebtc</t>
+  </si>
+  <si>
+    <t>#faucetofbob</t>
+  </si>
+  <si>
+    <t>#faucetcryptoeu</t>
+  </si>
+  <si>
+    <t>#uptocoin</t>
+  </si>
+  <si>
+    <t>#winsatoshi</t>
+  </si>
+  <si>
+    <t>#ahguial</t>
+  </si>
+  <si>
+    <t>#mycryptofaucet</t>
+  </si>
+  <si>
+    <t>#yfaucet</t>
+  </si>
+  <si>
+    <t>#flashearn</t>
+  </si>
+  <si>
+    <t>#rainfaucet</t>
+  </si>
+  <si>
+    <t>#coinbirds</t>
+  </si>
+  <si>
+    <t>#cashmining</t>
+  </si>
+  <si>
+    <t>#payfee</t>
+  </si>
+  <si>
+    <t>#icucu</t>
+  </si>
+  <si>
+    <t>#battlefarm</t>
+  </si>
+  <si>
+    <t>#btccolletor</t>
+  </si>
+  <si>
+    <t>#invertex</t>
+  </si>
+  <si>
+    <t>#fpminer</t>
+  </si>
+  <si>
+    <t>#9faucet</t>
+  </si>
+  <si>
+    <t>#elfaucet</t>
+  </si>
+  <si>
+    <t>#faucetuno</t>
+  </si>
+  <si>
+    <t>#cow4cash</t>
+  </si>
+  <si>
+    <t>#adsyou</t>
+  </si>
+  <si>
+    <t>#workertrx</t>
+  </si>
+  <si>
+    <t>#theautofaucet</t>
+  </si>
+  <si>
+    <t>#therian</t>
+  </si>
+  <si>
+    <t>#feearn</t>
+  </si>
+  <si>
+    <t>#faucets</t>
+  </si>
+  <si>
+    <t>#kingsptc</t>
+  </si>
+  <si>
+    <t>#rigfaucet</t>
+  </si>
+  <si>
+    <t>#goldenfarm</t>
+  </si>
+  <si>
+    <t>#jamestrussy</t>
+  </si>
+  <si>
+    <t>#payfaucetbr</t>
+  </si>
+  <si>
+    <t>#megaclaimbits</t>
+  </si>
+  <si>
+    <t>#chickensformoney</t>
+  </si>
+  <si>
+    <t>#simpleads</t>
+  </si>
+  <si>
+    <t>#btcbunch</t>
+  </si>
+  <si>
+    <t>#kiddyearner</t>
+  </si>
+  <si>
+    <t>#trampocoins</t>
+  </si>
+  <si>
+    <t>#autocoinfaucet</t>
+  </si>
+  <si>
+    <t>#cryptonationfaucet</t>
+  </si>
+  <si>
+    <t>#biduefaucet</t>
+  </si>
+  <si>
+    <t>#faucetfortune</t>
+  </si>
+  <si>
+    <t>#kiwifaucet</t>
+  </si>
+  <si>
+    <t>#lalafaucet</t>
+  </si>
+  <si>
+    <t>#coinsfaucet</t>
+  </si>
+  <si>
+    <t>#tupanfaucet</t>
+  </si>
+  <si>
+    <t>#febacoin</t>
+  </si>
+  <si>
+    <t>#satoshiclick</t>
+  </si>
+  <si>
+    <t>#malitanyo</t>
+  </si>
+  <si>
+    <t>#magic4ever</t>
+  </si>
+  <si>
+    <t>#onefaucet</t>
+  </si>
+  <si>
+    <t>#jobfaucet</t>
+  </si>
+  <si>
+    <t>#dubaifaucet</t>
+  </si>
+  <si>
+    <t>#supershares</t>
+  </si>
+  <si>
+    <t>#dgbteam</t>
+  </si>
+  <si>
+    <t>#grabcc</t>
+  </si>
+  <si>
+    <t>#earncryptofaucet</t>
+  </si>
+  <si>
+    <t>#dreyproject</t>
+  </si>
+  <si>
+    <t>#topfaucetco</t>
+  </si>
+  <si>
+    <t>#multiearn</t>
+  </si>
+  <si>
+    <t>#sato</t>
+  </si>
+  <si>
+    <t>#flycrypto</t>
+  </si>
+  <si>
+    <t>#zxdt</t>
+  </si>
+  <si>
+    <t>#faucetcoinsum</t>
+  </si>
+  <si>
+    <t>#pinoyfaucet</t>
+  </si>
+  <si>
+    <t>#bestfaucet</t>
+  </si>
+  <si>
+    <t>#kazipay</t>
+  </si>
+  <si>
+    <t>#doge25</t>
+  </si>
+  <si>
+    <t>#xrpfreetrx</t>
+  </si>
+  <si>
+    <t>#freemcash</t>
+  </si>
+  <si>
+    <t>#blog24</t>
+  </si>
+  <si>
+    <t>#autofcfreetrx</t>
+  </si>
+  <si>
+    <t>#simpleadscom</t>
+  </si>
+  <si>
+    <t>#faucetmega</t>
+  </si>
+  <si>
+    <t>#mydgcoin</t>
+  </si>
+  <si>
+    <t>#faucetnation</t>
+  </si>
+  <si>
+    <t>#shibafreetrx</t>
+  </si>
+  <si>
+    <t>#claimourcoincash</t>
+  </si>
+  <si>
+    <t>#coinsnopy</t>
+  </si>
+  <si>
+    <t>#claimbitscash</t>
+  </si>
+  <si>
+    <t>#adviewsatoshi</t>
+  </si>
+  <si>
+    <t>#btc25org</t>
+  </si>
+  <si>
+    <t>#freetrxfun</t>
+  </si>
+  <si>
+    <t>#clixhog</t>
+  </si>
+  <si>
+    <t>#edenfaucet</t>
+  </si>
+  <si>
+    <t>#hyperfaucet</t>
+  </si>
+  <si>
+    <r>
+      <t>#claimbits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#earnbitmoon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#harshcoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#topfaucet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#btcad24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#cryptoshi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#scoinclick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#claimfreebitsxyz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#888satoshis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#oldwor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#gwaher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#luckydice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#dutchycorp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (offline)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#firefaucet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#cekip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#blatcoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (update v4) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#faucetss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (offline)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#btcadspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (offline)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#claimcoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (update v2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#claimlite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (offline)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#ad2word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (NEW)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hashtag</t>
+  </si>
+  <si>
+    <t>Script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +1174,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -539,7 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -566,11 +1248,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -841,7 +1524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,7 +1535,7 @@
   <dimension ref="A5:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,7 +1547,7 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
@@ -917,12 +1600,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="H6" s="9"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1226,12 +1909,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1286,12 +1969,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1354,12 +2037,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -1448,12 +2131,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -1590,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:L20"/>
+  <dimension ref="A5:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,30 +2399,30 @@
         <v>5948331720</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>5948331720</v>
       </c>
-      <c r="L8" s="17" t="str">
-        <f t="shared" ref="L7:L16" si="0">CONCATENATE("default|",B8,":",C8,":",D8,"|http|",G8,"|",I8,"|",J8,"|",K8,"|")</f>
+      <c r="L8" s="16" t="str">
+        <f t="shared" ref="L8:L10" si="0">CONCATENATE("default|",B8,":",C8,":",D8,"|http|",G8,"|",I8,"|",J8,"|",K8,"|")</f>
         <v>default|phongvuong.info@gmail.com::|http|183.80.65.178||5678131708:AAEAHHmegTq0wk6FTETUX5kmFf7MUiUZZiE|5948331720|</v>
       </c>
     </row>
@@ -1770,35 +2453,35 @@
         <v>default|phongvuong.info@gmail.com::|http|183.80.65.178||5678131708:AAEAHHmegTq0wk6FTETUX5kmFf7MUiUZZiE|5948331720|</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>5948331720</v>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>default|phongvuong.info@gmail.com:Vuongphong:Nhicolai0789|http|183.80.65.178||5678131708:AAEAHHmegTq0wk6FTETUX5kmFf7MUiUZZiE|5948331720|</v>
       </c>
@@ -1890,26 +2573,26 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>5948331720</v>
       </c>
     </row>
@@ -2030,6 +2713,20 @@
       </c>
       <c r="K20" s="4">
         <v>5948331720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +2740,7 @@
   <dimension ref="A5:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2750,7 @@
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2828,4 +3525,1182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>115</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>116</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>117</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>118</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>119</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>120</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>121</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>122</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>123</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>124</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>125</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>126</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>127</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>128</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>129</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>130</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>131</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>132</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>133</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>134</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>135</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>136</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>137</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>138</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>139</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>140</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>141</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>142</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>143</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>